--- a/biology/Histoire de la zoologie et de la botanique/Carlos_E._Valerio/Carlos_E._Valerio.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carlos_E._Valerio/Carlos_E._Valerio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlos E. Valerio est un arachnologue costaricien de l'Escuela de Biologia à l'Universidad de Costa Rica.
 Il analyse l'arachnofaune centraméricaine.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Opisthacanthus valerioi Lourenço, 1980
 Valeriophonus Viquez &amp; Armas, 2005</t>
@@ -569,7 +585,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aphonopelma burica Valerio, 1980
@@ -633,7 +651,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Valerio, C.E. 1971 : The spider genus Drymusa in the New World (Araneae: Scytodidae). Florida Entomologist, vol. 54, p. 193-200.
 Valerio, C.E. 1979 : Arañas terafósidas de Costa Rica (Araneae: Theraphosidae). II. Psalmopoeus reduncus, redescripción, distribución y el problema de dispersión en terafósidas. Revista de Biología Tropical, vol. 27, p. 301-308.
